--- a/output.xlsx
+++ b/output.xlsx
@@ -16,14 +16,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.00 DKK"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00dkk"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00 kr"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +54,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,13 +424,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -427,7 +441,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Salesperson</t>
         </is>
@@ -440,22 +454,42 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>Value</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>kim</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jonas</t>
+          <t>Feriba</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2213</v>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>5335</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mila</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -466,11 +500,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3462</v>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>21918</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>jonas</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -481,41 +525,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1430</v>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>9254</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Rosanna</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1614</v>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>21469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Karl</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3418</v>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>10655</v>
       </c>
     </row>
     <row r="8">
@@ -529,23 +573,23 @@
           <t>Bronze</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>9070</v>
+      <c r="C8" s="3" t="n">
+        <v>13992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jonas</t>
+          <t>Mila</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5398</v>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>10870</v>
       </c>
     </row>
     <row r="10">
@@ -559,14 +603,14 @@
           <t>Gold</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>2682</v>
+      <c r="C10" s="3" t="n">
+        <v>10713</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mila</t>
+          <t>Rosanna</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -574,44 +618,44 @@
           <t>Silver</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>9627</v>
+      <c r="C11" s="3" t="n">
+        <v>20978</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Mila</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1822</v>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>3383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jonas</t>
+          <t>Karl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>7354</v>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>21381</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Mila</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -619,14 +663,14 @@
           <t>Bronze</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1023</v>
+      <c r="C14" s="3" t="n">
+        <v>23829</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jonas</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -634,8 +678,8 @@
           <t>Gold</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>4766</v>
+      <c r="C15" s="3" t="n">
+        <v>20852</v>
       </c>
     </row>
     <row r="16">
@@ -646,47 +690,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>8923</v>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>11540</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jonas</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bronze</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5108</v>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>19011</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Rosanna</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>5888</v>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>24641</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jonas</t>
+          <t>Feriba</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -694,8 +738,14 @@
           <t>Bronze</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>8907</v>
+      <c r="C19" s="3" t="n">
+        <v>23147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20">
+        <f>sum(c3:c19)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
